--- a/data/example/example.populations.xlsx
+++ b/data/example/example.populations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Pt0_blast</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pt0_NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt0_Bcells</t>
   </si>
 </sst>
 </file>
@@ -43,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -131,10 +135,10 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -142,13 +146,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
